--- a/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 31,39</t>
+          <t>12,71; 31,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,24; -7,15</t>
+          <t>-21,14; -6,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 24,32</t>
+          <t>5,35; 23,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -15,56</t>
+          <t>-31,31; -16,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,62; 25,31</t>
+          <t>11,99; 26,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,69; -13,27</t>
+          <t>-23,13; -12,74</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,49; 168,18</t>
+          <t>43,98; 165,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,03; -34,08</t>
+          <t>-71,59; -30,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 80,29</t>
+          <t>12,78; 75,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,5; -51,67</t>
+          <t>-74,05; -51,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,65; 92,6</t>
+          <t>34,83; 98,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -49,1</t>
+          <t>-69,98; -48,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 36,02</t>
+          <t>22,51; 36,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 6,74</t>
+          <t>-5,57; 6,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 9,18</t>
+          <t>-4,22; 8,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 35,2</t>
+          <t>22,9; 35,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 5,13</t>
+          <t>-6,49; 5,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,72</t>
+          <t>-2,48; 8,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 33,58</t>
+          <t>24,46; 33,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 3,79</t>
+          <t>-4,29; 3,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 6,73</t>
+          <t>-0,87; 7,48</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,31; 226,69</t>
+          <t>101,39; 228,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 43,46</t>
+          <t>-25,41; 38,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 55,91</t>
+          <t>-19,89; 54,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,55; 164,64</t>
+          <t>83,26; 166,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 25,13</t>
+          <t>-24,81; 23,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 41,08</t>
+          <t>-8,86; 42,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,12; 168,96</t>
+          <t>101,59; 168,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 19,3</t>
+          <t>-17,55; 19,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 34,1</t>
+          <t>-4,08; 39,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,68; 37,51</t>
+          <t>21,46; 36,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 13,31</t>
+          <t>-1,5; 13,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 7,15</t>
+          <t>-5,72; 7,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,6; 31,27</t>
+          <t>15,56; 31,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 6,01</t>
+          <t>-8,19; 7,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -1,28</t>
+          <t>-14,94; -1,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,39; 31,63</t>
+          <t>19,88; 31,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,54</t>
+          <t>-2,99; 7,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 0,46</t>
+          <t>-9,31; 0,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,33; 250,96</t>
+          <t>90,09; 244,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 87,43</t>
+          <t>-7,46; 89,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 45,94</t>
+          <t>-25,81; 47,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,63; 115,8</t>
+          <t>44,54; 116,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 22,0</t>
+          <t>-23,79; 25,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -3,97</t>
+          <t>-41,84; -5,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>71,13; 138,8</t>
+          <t>69,76; 138,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 34,76</t>
+          <t>-10,87; 31,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 2,1</t>
+          <t>-33,06; 1,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,89; 49,78</t>
+          <t>37,46; 49,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,77; 33,57</t>
+          <t>18,91; 33,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 21,88</t>
+          <t>6,15; 22,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,65; 43,81</t>
+          <t>32,03; 43,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 31,03</t>
+          <t>16,54; 31,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 7,77</t>
+          <t>-6,1; 7,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,54; 45,1</t>
+          <t>35,72; 44,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,41; 29,7</t>
+          <t>19,66; 29,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 11,51</t>
+          <t>1,53; 11,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>200,94; 459,25</t>
+          <t>207,09; 461,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>103,6; 291,5</t>
+          <t>109,92; 305,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,29; 185,95</t>
+          <t>37,04; 211,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>114,82; 220,84</t>
+          <t>117,04; 222,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>61,9; 156,35</t>
+          <t>62,44; 158,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 39,11</t>
+          <t>-23,15; 37,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>164,51; 267,99</t>
+          <t>161,86; 275,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>90,47; 177,05</t>
+          <t>89,55; 173,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 66,86</t>
+          <t>7,02; 67,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,81; 36,16</t>
+          <t>15,52; 36,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,66; 42,12</t>
+          <t>21,49; 42,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 6,35</t>
+          <t>-13,72; 5,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,18; 40,63</t>
+          <t>20,67; 40,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,05; 49,2</t>
+          <t>31,38; 49,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 2,98</t>
+          <t>-14,72; 3,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,28; 35,77</t>
+          <t>21,54; 35,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,42; 43,08</t>
+          <t>29,04; 43,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 0,5</t>
+          <t>-11,64; 2,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>44,06; 165,28</t>
+          <t>47,47; 169,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>65,47; 196,31</t>
+          <t>62,11; 193,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 29,7</t>
+          <t>-44,47; 24,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>70,64; 212,56</t>
+          <t>69,34; 210,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,46; 256,82</t>
+          <t>105,17; 264,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 13,46</t>
+          <t>-52,38; 16,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>71,03; 162,94</t>
+          <t>72,08; 164,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>98,59; 202,29</t>
+          <t>95,19; 204,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 2,31</t>
+          <t>-41,79; 8,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>28,95; 46,0</t>
+          <t>29,87; 45,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>19,27; 36,33</t>
+          <t>18,82; 35,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,23; 20,44</t>
+          <t>6,01; 20,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18,02; 34,58</t>
+          <t>18,3; 34,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,28; 33,46</t>
+          <t>14,11; 32,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,86; 18,8</t>
+          <t>5,52; 19,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>25,54; 37,18</t>
+          <t>25,55; 37,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>18,83; 31,22</t>
+          <t>19,14; 31,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,78; 18,05</t>
+          <t>7,87; 18,01</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>149,96; 402,43</t>
+          <t>145,73; 402,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>98,32; 307,92</t>
+          <t>100,39; 305,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>28,98; 168,74</t>
+          <t>32,09; 174,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>67,55; 205,57</t>
+          <t>67,05; 197,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>56,2; 194,36</t>
+          <t>56,41; 192,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,99; 109,77</t>
+          <t>22,46; 121,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>120,74; 245,54</t>
+          <t>119,19; 240,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>92,02; 206,63</t>
+          <t>88,12; 197,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>35,57; 116,45</t>
+          <t>38,42; 116,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>21,33; 34,11</t>
+          <t>22,04; 34,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,89; 22,07</t>
+          <t>9,96; 22,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -3,31</t>
+          <t>-12,96; -3,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,71; 27,19</t>
+          <t>15,75; 27,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,37; 24,17</t>
+          <t>12,67; 24,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 33,64</t>
+          <t>-14,23; 32,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,05; 28,46</t>
+          <t>20,68; 28,7</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>13,4; 21,64</t>
+          <t>13,28; 22,01</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 24,99</t>
+          <t>-11,89; 27,63</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>88,94; 206,1</t>
+          <t>94,77; 198,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>42,24; 125,66</t>
+          <t>43,34; 126,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-59,36; -18,3</t>
+          <t>-57,01; -17,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>53,19; 114,75</t>
+          <t>53,97; 118,48</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>41,31; 100,54</t>
+          <t>45,6; 107,62</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,27; 145,56</t>
+          <t>-52,14; 124,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>78,47; 132,51</t>
+          <t>79,63; 134,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>53,02; 102,42</t>
+          <t>51,77; 103,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 107,74</t>
+          <t>-49,2; 120,55</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>16,73; 28,52</t>
+          <t>16,42; 27,57</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>24,35; 35,64</t>
+          <t>25,07; 36,71</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,98</t>
+          <t>3,37; 15,41</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>24,79; 34,82</t>
+          <t>24,3; 34,91</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>34,37; 44,49</t>
+          <t>33,95; 44,32</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,57; 26,3</t>
+          <t>16,48; 27,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>22,52; 30,46</t>
+          <t>22,96; 30,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>31,31; 38,79</t>
+          <t>31,65; 38,88</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12,72; 20,51</t>
+          <t>12,64; 20,45</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>50,57; 104,31</t>
+          <t>48,53; 103,03</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>70,64; 130,87</t>
+          <t>74,48; 134,06</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>10,43; 58,21</t>
+          <t>10,18; 56,76</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>86,07; 148,28</t>
+          <t>82,52; 147,34</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>119,46; 190,27</t>
+          <t>117,22; 191,56</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>58,82; 111,61</t>
+          <t>58,09; 115,06</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>75,47; 116,75</t>
+          <t>76,57; 116,87</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>105,16; 149,78</t>
+          <t>105,78; 152,93</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>43,01; 80,06</t>
+          <t>42,21; 80,33</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,6</t>
+          <t>27,36; 32,5</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,44</t>
+          <t>17,25; 22,3</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,58</t>
+          <t>-0,48; 4,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,42</t>
+          <t>25,24; 30,25</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,1</t>
+          <t>18,24; 23,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,21</t>
+          <t>0,5; 13,45</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,5</t>
+          <t>27,01; 30,5</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,98</t>
+          <t>18,51; 22,1</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,57</t>
+          <t>1,11; 8,92</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>117,32; 159,14</t>
+          <t>117,1; 158,35</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>73,49; 108,72</t>
+          <t>74,32; 109,38</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 21,77</t>
+          <t>-2,08; 22,02</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>93,74; 123,11</t>
+          <t>91,73; 121,61</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>66,44; 92,38</t>
+          <t>66,17; 93,47</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,5; 52,44</t>
+          <t>1,83; 53,45</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>107,28; 131,06</t>
+          <t>108,18; 132,61</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>73,18; 94,43</t>
+          <t>74,11; 94,8</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>3,88; 38,18</t>
+          <t>4,4; 37,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 31,13</t>
+          <t>11,76; 31,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,14; -6,47</t>
+          <t>-21,03; -6,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 23,97</t>
+          <t>5,27; 23,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,31; -16,16</t>
+          <t>-31,1; -15,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 26,22</t>
+          <t>11,44; 24,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,13; -12,74</t>
+          <t>-24,26; -12,51</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,98; 165,44</t>
+          <t>40,66; 161,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,59; -30,89</t>
+          <t>-71,5; -32,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 75,66</t>
+          <t>12,43; 76,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,05; -51,79</t>
+          <t>-74,51; -50,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,83; 98,67</t>
+          <t>34,58; 95,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,98; -48,09</t>
+          <t>-70,54; -48,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,51; 36,28</t>
+          <t>22,59; 36,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,41</t>
+          <t>-5,53; 6,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 8,93</t>
+          <t>-4,52; 8,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 35,36</t>
+          <t>22,49; 35,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,04</t>
+          <t>-6,27; 5,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 8,97</t>
+          <t>-2,27; 8,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,46; 33,39</t>
+          <t>24,27; 33,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,83</t>
+          <t>-4,55; 3,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,48</t>
+          <t>-1,18; 7,66</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>101,39; 228,45</t>
+          <t>95,61; 229,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 38,13</t>
+          <t>-24,51; 39,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 54,91</t>
+          <t>-20,29; 53,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,26; 166,77</t>
+          <t>81,98; 165,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 23,35</t>
+          <t>-23,75; 24,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 42,7</t>
+          <t>-7,81; 43,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>101,59; 168,52</t>
+          <t>100,24; 170,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 19,1</t>
+          <t>-18,87; 19,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 39,28</t>
+          <t>-4,96; 38,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,46; 36,88</t>
+          <t>21,43; 37,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 13,57</t>
+          <t>-0,81; 13,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 7,38</t>
+          <t>-6,74; 6,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,56; 31,17</t>
+          <t>14,37; 31,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 7,07</t>
+          <t>-8,41; 6,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -1,3</t>
+          <t>-15,97; -1,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,88; 31,65</t>
+          <t>20,16; 31,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 7,39</t>
+          <t>-3,56; 7,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 0,51</t>
+          <t>-9,73; 0,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,09; 244,23</t>
+          <t>94,65; 245,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 89,54</t>
+          <t>-4,15; 87,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 47,55</t>
+          <t>-29,15; 46,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,54; 116,64</t>
+          <t>39,24; 115,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 25,62</t>
+          <t>-23,96; 25,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,84; -5,37</t>
+          <t>-44,53; -5,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,76; 138,01</t>
+          <t>70,28; 139,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 31,19</t>
+          <t>-12,26; 32,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 1,5</t>
+          <t>-33,61; 1,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,46; 49,65</t>
+          <t>37,91; 50,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,91; 33,53</t>
+          <t>18,83; 33,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 22,0</t>
+          <t>5,82; 22,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,03; 43,94</t>
+          <t>31,12; 43,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,54; 31,22</t>
+          <t>16,36; 30,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 7,68</t>
+          <t>-5,64; 7,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,72; 44,73</t>
+          <t>36,21; 44,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,66; 29,36</t>
+          <t>19,7; 30,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 11,62</t>
+          <t>1,08; 11,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>207,09; 461,95</t>
+          <t>205,24; 471,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>109,92; 305,72</t>
+          <t>109,2; 296,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,04; 211,24</t>
+          <t>34,56; 200,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>117,04; 222,89</t>
+          <t>108,8; 225,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>62,44; 158,94</t>
+          <t>60,79; 148,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 37,36</t>
+          <t>-21,88; 37,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>161,86; 275,67</t>
+          <t>161,33; 267,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>89,55; 173,56</t>
+          <t>89,43; 178,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,02; 67,73</t>
+          <t>5,18; 67,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,52; 36,54</t>
+          <t>14,18; 36,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,49; 42,12</t>
+          <t>22,32; 41,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 5,88</t>
+          <t>-13,62; 6,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,67; 40,57</t>
+          <t>21,52; 40,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,38; 49,37</t>
+          <t>30,27; 48,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 3,46</t>
+          <t>-15,5; 3,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,54; 35,63</t>
+          <t>22,09; 35,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,04; 43,81</t>
+          <t>29,39; 43,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 2,05</t>
+          <t>-12,07; 1,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>47,47; 169,92</t>
+          <t>42,78; 165,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>62,11; 193,28</t>
+          <t>65,77; 191,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 24,95</t>
+          <t>-43,11; 28,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>69,34; 210,26</t>
+          <t>70,43; 211,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>105,17; 264,68</t>
+          <t>104,63; 253,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 16,32</t>
+          <t>-54,08; 15,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>72,08; 164,27</t>
+          <t>74,9; 162,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>95,19; 204,13</t>
+          <t>95,94; 197,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 8,86</t>
+          <t>-42,94; 6,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>29,87; 45,3</t>
+          <t>28,47; 45,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>18,82; 35,31</t>
+          <t>18,69; 35,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,01; 20,03</t>
+          <t>5,62; 20,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18,3; 34,93</t>
+          <t>17,55; 35,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,11; 32,22</t>
+          <t>15,27; 32,65</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,52; 19,98</t>
+          <t>5,65; 20,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>25,55; 37,16</t>
+          <t>25,49; 37,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>19,14; 31,19</t>
+          <t>19,55; 31,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,87; 18,01</t>
+          <t>7,86; 18,08</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>145,73; 402,01</t>
+          <t>147,75; 417,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>100,39; 305,65</t>
+          <t>96,14; 304,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,09; 174,82</t>
+          <t>27,68; 179,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>67,05; 197,29</t>
+          <t>66,61; 208,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>56,41; 192,08</t>
+          <t>56,2; 184,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,46; 121,92</t>
+          <t>21,22; 120,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>119,19; 240,17</t>
+          <t>120,43; 240,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>88,12; 197,96</t>
+          <t>90,58; 197,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>38,42; 116,04</t>
+          <t>36,79; 115,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>22,04; 34,43</t>
+          <t>21,88; 34,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,96; 22,16</t>
+          <t>9,98; 22,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -3,4</t>
+          <t>-13,23; -2,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,75; 27,29</t>
+          <t>15,44; 26,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,67; 24,01</t>
+          <t>12,5; 24,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 32,31</t>
+          <t>-14,0; 36,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,7</t>
+          <t>20,05; 28,55</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,01</t>
+          <t>12,77; 21,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 27,63</t>
+          <t>-11,72; 28,47</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>94,77; 198,27</t>
+          <t>92,55; 198,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>43,34; 126,79</t>
+          <t>42,91; 126,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,01; -17,94</t>
+          <t>-57,88; -14,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>53,97; 118,48</t>
+          <t>53,83; 113,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>45,6; 107,62</t>
+          <t>44,11; 103,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 124,27</t>
+          <t>-51,91; 151,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>79,63; 134,14</t>
+          <t>79,67; 134,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>51,77; 103,06</t>
+          <t>49,1; 97,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-49,2; 120,55</t>
+          <t>-48,44; 125,68</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>16,42; 27,57</t>
+          <t>16,05; 27,88</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>25,07; 36,71</t>
+          <t>24,84; 36,16</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,41</t>
+          <t>3,24; 16,2</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,91</t>
+          <t>25,18; 35,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>33,95; 44,32</t>
+          <t>34,03; 44,63</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,48; 27,01</t>
+          <t>16,26; 26,67</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>22,96; 30,12</t>
+          <t>22,6; 30,32</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>31,65; 38,88</t>
+          <t>31,49; 38,69</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,45</t>
+          <t>12,86; 20,31</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>48,53; 103,03</t>
+          <t>48,48; 104,73</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>74,48; 134,06</t>
+          <t>73,83; 134,74</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>10,18; 56,76</t>
+          <t>9,45; 58,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>82,52; 147,34</t>
+          <t>87,85; 152,97</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>117,22; 191,56</t>
+          <t>118,06; 192,22</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>58,09; 115,06</t>
+          <t>56,01; 113,22</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>76,57; 116,87</t>
+          <t>76,07; 118,9</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>105,78; 152,93</t>
+          <t>104,52; 150,26</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>42,21; 80,33</t>
+          <t>43,27; 77,96</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>27,36; 32,5</t>
+          <t>27,12; 32,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>17,25; 22,3</t>
+          <t>16,91; 22,43</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,58</t>
+          <t>-0,41; 4,55</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>25,24; 30,25</t>
+          <t>25,4; 30,43</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,24; 23,31</t>
+          <t>17,99; 23,11</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,5; 13,45</t>
+          <t>0,49; 13,15</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>27,01; 30,5</t>
+          <t>26,94; 30,56</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>18,51; 22,1</t>
+          <t>18,4; 22,04</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,92</t>
+          <t>1,06; 8,41</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>117,1; 158,35</t>
+          <t>116,89; 158,21</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>74,32; 109,38</t>
+          <t>73,9; 108,84</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 22,02</t>
+          <t>-1,82; 22,18</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>91,73; 121,61</t>
+          <t>92,89; 122,78</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>66,17; 93,47</t>
+          <t>66,0; 92,3</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,83; 53,45</t>
+          <t>1,79; 51,49</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>108,18; 132,61</t>
+          <t>107,01; 131,7</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>74,11; 94,8</t>
+          <t>73,01; 95,31</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>4,4; 37,66</t>
+          <t>4,23; 36,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,76; 31,52</t>
+          <t>13,19; 31,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -6,64</t>
+          <t>-22,24; -7,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 23,62</t>
+          <t>5,23; 24,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -15,48</t>
+          <t>-31,44; -15,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,44; 24,99</t>
+          <t>11,62; 25,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,26; -12,51</t>
+          <t>-23,69; -13,27</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,66; 161,5</t>
+          <t>45,49; 168,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,5; -32,48</t>
+          <t>-72,03; -34,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 76,27</t>
+          <t>11,9; 80,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,51; -50,85</t>
+          <t>-74,5; -51,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,58; 95,12</t>
+          <t>33,65; 92,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,54; -48,55</t>
+          <t>-69,91; -49,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 36,22</t>
+          <t>22,23; 36,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,26</t>
+          <t>-5,01; 6,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 8,74</t>
+          <t>-4,76; 9,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 35,19</t>
+          <t>22,52; 35,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,15</t>
+          <t>-6,29; 5,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 8,87</t>
+          <t>-1,82; 8,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,27; 33,39</t>
+          <t>24,35; 33,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 3,88</t>
+          <t>-4,19; 3,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 7,66</t>
+          <t>-1,34; 6,73</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,61; 229,23</t>
+          <t>97,31; 226,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 39,67</t>
+          <t>-22,8; 43,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 53,45</t>
+          <t>-21,47; 55,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,98; 165,67</t>
+          <t>83,55; 164,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 24,0</t>
+          <t>-23,09; 25,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 43,2</t>
+          <t>-6,97; 41,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,24; 170,78</t>
+          <t>100,12; 168,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 19,44</t>
+          <t>-17,55; 19,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 38,07</t>
+          <t>-5,72; 34,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,43; 37,68</t>
+          <t>21,68; 37,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 13,67</t>
+          <t>-0,89; 13,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 6,92</t>
+          <t>-7,05; 7,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,37; 31,07</t>
+          <t>15,6; 31,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 6,81</t>
+          <t>-8,92; 6,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -1,62</t>
+          <t>-14,9; -1,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,16; 31,55</t>
+          <t>20,39; 31,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 7,71</t>
+          <t>-4,25; 7,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 0,3</t>
+          <t>-9,54; 0,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94,65; 245,2</t>
+          <t>89,33; 250,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 87,29</t>
+          <t>-4,57; 87,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 46,52</t>
+          <t>-31,04; 45,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,24; 115,01</t>
+          <t>43,63; 115,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 25,46</t>
+          <t>-26,1; 22,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,53; -5,79</t>
+          <t>-42,68; -3,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,28; 139,37</t>
+          <t>71,13; 138,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 32,8</t>
+          <t>-14,92; 34,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 1,22</t>
+          <t>-33,51; 2,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,91; 50,2</t>
+          <t>37,89; 49,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,83; 33,05</t>
+          <t>18,77; 33,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 22,4</t>
+          <t>6,07; 21,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,12; 43,75</t>
+          <t>31,65; 43,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,36; 30,11</t>
+          <t>16,44; 31,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,72</t>
+          <t>-6,02; 7,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,21; 44,87</t>
+          <t>36,54; 45,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,7; 30,45</t>
+          <t>19,41; 29,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 11,49</t>
+          <t>1,03; 11,51</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>205,24; 471,8</t>
+          <t>200,94; 459,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>109,2; 296,04</t>
+          <t>103,6; 291,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,56; 200,43</t>
+          <t>32,29; 185,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>108,8; 225,82</t>
+          <t>114,82; 220,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>60,79; 148,85</t>
+          <t>61,9; 156,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 37,73</t>
+          <t>-23,06; 39,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>161,33; 267,1</t>
+          <t>164,51; 267,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>89,43; 178,72</t>
+          <t>90,47; 177,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 67,26</t>
+          <t>5,59; 66,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,18; 36,16</t>
+          <t>14,81; 36,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,32; 41,91</t>
+          <t>21,66; 42,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 6,26</t>
+          <t>-13,6; 6,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,52; 40,13</t>
+          <t>21,18; 40,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,27; 48,3</t>
+          <t>30,05; 49,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 3,27</t>
+          <t>-14,35; 2,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,09; 35,36</t>
+          <t>21,28; 35,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,39; 43,76</t>
+          <t>29,42; 43,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 1,58</t>
+          <t>-12,66; 0,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>42,78; 165,12</t>
+          <t>44,06; 165,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>65,77; 191,22</t>
+          <t>65,47; 196,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 28,59</t>
+          <t>-42,1; 29,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>70,43; 211,0</t>
+          <t>70,64; 212,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>104,63; 253,76</t>
+          <t>97,46; 256,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 15,93</t>
+          <t>-51,87; 13,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>74,9; 162,17</t>
+          <t>71,03; 162,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>95,94; 197,57</t>
+          <t>98,59; 202,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 6,24</t>
+          <t>-43,43; 2,31</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>28,47; 45,67</t>
+          <t>28,95; 46,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>18,69; 35,16</t>
+          <t>19,27; 36,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,62; 20,24</t>
+          <t>6,23; 20,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>17,55; 35,02</t>
+          <t>18,02; 34,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,27; 32,65</t>
+          <t>14,28; 33,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,65; 20,21</t>
+          <t>4,86; 18,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>25,49; 37,03</t>
+          <t>25,54; 37,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>19,55; 31,32</t>
+          <t>18,83; 31,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,86; 18,08</t>
+          <t>7,78; 18,05</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>147,75; 417,16</t>
+          <t>149,96; 402,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>96,14; 304,72</t>
+          <t>98,32; 307,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,68; 179,26</t>
+          <t>28,98; 168,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>66,61; 208,58</t>
+          <t>67,55; 205,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>56,2; 184,33</t>
+          <t>56,2; 194,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,22; 120,52</t>
+          <t>18,99; 109,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>120,43; 240,31</t>
+          <t>120,74; 245,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>90,58; 197,24</t>
+          <t>92,02; 206,63</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>36,79; 115,59</t>
+          <t>35,57; 116,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>21,88; 34,02</t>
+          <t>21,33; 34,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,98; 22,25</t>
+          <t>9,89; 22,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -2,78</t>
+          <t>-13,63; -3,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,44; 26,82</t>
+          <t>15,71; 27,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,5; 24,45</t>
+          <t>12,37; 24,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 36,12</t>
+          <t>-13,64; 33,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,05; 28,55</t>
+          <t>20,05; 28,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>12,77; 21,3</t>
+          <t>13,4; 21,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 28,47</t>
+          <t>-11,43; 24,99</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>92,55; 198,86</t>
+          <t>88,94; 206,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>42,91; 126,65</t>
+          <t>42,24; 125,66</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,88; -14,01</t>
+          <t>-59,36; -18,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>53,83; 113,03</t>
+          <t>53,19; 114,75</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>44,11; 103,3</t>
+          <t>41,31; 100,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 151,96</t>
+          <t>-51,27; 145,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>79,67; 134,66</t>
+          <t>78,47; 132,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>49,1; 97,95</t>
+          <t>53,02; 102,42</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 125,68</t>
+          <t>-48,39; 107,74</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>16,05; 27,88</t>
+          <t>16,73; 28,52</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>24,84; 36,16</t>
+          <t>24,35; 35,64</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,24; 16,2</t>
+          <t>3,37; 15,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>25,18; 35,6</t>
+          <t>24,79; 34,82</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>34,03; 44,63</t>
+          <t>34,37; 44,49</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,26; 26,67</t>
+          <t>16,57; 26,3</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>22,6; 30,32</t>
+          <t>22,52; 30,46</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>31,49; 38,69</t>
+          <t>31,31; 38,79</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12,86; 20,31</t>
+          <t>12,72; 20,51</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>48,48; 104,73</t>
+          <t>50,57; 104,31</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>73,83; 134,74</t>
+          <t>70,64; 130,87</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>9,45; 58,58</t>
+          <t>10,43; 58,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>87,85; 152,97</t>
+          <t>86,07; 148,28</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>118,06; 192,22</t>
+          <t>119,46; 190,27</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>56,01; 113,22</t>
+          <t>58,82; 111,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>76,07; 118,9</t>
+          <t>75,47; 116,75</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>104,52; 150,26</t>
+          <t>105,16; 149,78</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>43,27; 77,96</t>
+          <t>43,01; 80,06</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,34</t>
+          <t>27,12; 32,6</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,43</t>
+          <t>17,05; 22,44</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,55</t>
+          <t>-0,54; 4,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>25,4; 30,43</t>
+          <t>25,8; 30,42</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>17,99; 23,11</t>
+          <t>18,2; 23,1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,49; 13,15</t>
+          <t>0,41; 13,21</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>26,94; 30,56</t>
+          <t>26,97; 30,5</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>18,4; 22,04</t>
+          <t>18,25; 21,98</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,41</t>
+          <t>1,0; 9,57</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>116,89; 158,21</t>
+          <t>117,32; 159,14</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>73,9; 108,84</t>
+          <t>73,49; 108,72</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 22,18</t>
+          <t>-2,53; 21,77</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>92,89; 122,78</t>
+          <t>93,74; 123,11</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>66,0; 92,3</t>
+          <t>66,44; 92,38</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,79; 51,49</t>
+          <t>1,5; 52,44</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>107,01; 131,7</t>
+          <t>107,28; 131,06</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>73,01; 95,31</t>
+          <t>73,18; 94,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>4,23; 36,63</t>
+          <t>3,88; 38,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>35,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,3</t>
+          <t>-14,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-23,19</t>
+          <t>-23,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-18,29</t>
+          <t>-18,94</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,96; 44,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,24; -7,15</t>
+          <t>-22,98; -8,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,22; 33,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -15,56</t>
+          <t>-31,94; -16,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,55; 35,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,69; -13,27</t>
+          <t>-24,35; -13,9</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-55,52%</t>
+          <t>-58,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-64,57%</t>
+          <t>-65,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-60,89%</t>
+          <t>-63,02%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,58; 233,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,03; -34,08</t>
+          <t>-74,89; -38,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,06; 109,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,5; -51,67</t>
+          <t>-75,41; -53,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,04; 135,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -49,1</t>
+          <t>-71,76; -51,83</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 9,18</t>
+          <t>-5,3; 8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,72</t>
+          <t>-2,12; 8,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 6,73</t>
+          <t>-1,85; 6,28</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 55,91</t>
+          <t>-24,57; 53,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 41,08</t>
+          <t>-7,56; 39,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 34,1</t>
+          <t>-7,72; 31,57</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-4,53</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 7,15</t>
+          <t>-7,42; 6,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -1,28</t>
+          <t>-15,04; -1,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 0,46</t>
+          <t>-9,68; 0,4</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>-27,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,58%</t>
+          <t>-17,61%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 45,94</t>
+          <t>-31,97; 45,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -3,97</t>
+          <t>-43,28; -4,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 2,1</t>
+          <t>-34,23; 0,76</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>44,05</t>
+          <t>43,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,85</t>
+          <t>39,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,61</t>
+          <t>41,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>3,22</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,89; 49,78</t>
+          <t>36,23; 50,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 21,88</t>
+          <t>6,14; 22,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,65; 43,81</t>
+          <t>32,2; 46,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 7,77</t>
+          <t>-14,81; 3,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,54; 45,1</t>
+          <t>36,27; 45,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 11,51</t>
+          <t>-4,98; 8,83</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>307,72%</t>
+          <t>303,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>162,34%</t>
+          <t>168,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-16,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>211,15%</t>
+          <t>213,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>200,94; 459,25</t>
+          <t>201,1; 454,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,29; 185,95</t>
+          <t>31,83; 186,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>114,82; 220,84</t>
+          <t>117,56; 237,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 39,11</t>
+          <t>-53,94; 18,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>164,51; 267,99</t>
+          <t>162,93; 271,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 66,86</t>
+          <t>-23,56; 49,25</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-6,9</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 6,35</t>
+          <t>-13,79; 6,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 2,98</t>
+          <t>-19,62; 1,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 0,5</t>
+          <t>-16,28; -0,59</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-14,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-21,32%</t>
+          <t>-32,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-19,36%</t>
+          <t>-26,92%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 29,7</t>
+          <t>-42,14; 28,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 13,46</t>
+          <t>-70,77; 5,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 2,31</t>
+          <t>-60,14; -2,66</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>13,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,23; 20,44</t>
+          <t>6,38; 20,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,86; 18,8</t>
+          <t>4,89; 18,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,78; 18,05</t>
+          <t>7,78; 18,07</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>71,78%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>28,98; 168,74</t>
+          <t>29,55; 169,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,99; 109,77</t>
+          <t>19,27; 110,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>35,57; 116,45</t>
+          <t>35,17; 116,4</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>5,61</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -3,31</t>
+          <t>-13,6; -3,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 33,64</t>
+          <t>-13,91; 47,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 24,99</t>
+          <t>-11,56; 39,5</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-41,24%</t>
+          <t>-41,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>23,92%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-59,36; -18,3</t>
+          <t>-60,15; -17,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,27; 145,56</t>
+          <t>-52,06; 208,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 107,74</t>
+          <t>-48,96; 169,66</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>21,66</t>
+          <t>21,3</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>16,08</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,98</t>
+          <t>3,28; 15,82</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,57; 26,3</t>
+          <t>16,33; 25,98</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12,72; 20,51</t>
+          <t>12,44; 20,22</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>81,84%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>57,69%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>10,43; 58,21</t>
+          <t>10,18; 57,71</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>58,82; 111,61</t>
+          <t>57,33; 109,69</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>43,01; 80,06</t>
+          <t>41,85; 78,99</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,58</t>
+          <t>-1,53; 3,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,21</t>
+          <t>-1,34; 19,83</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,57</t>
+          <t>-0,51; 14,37</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,56%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 21,77</t>
+          <t>-6,89; 16,73</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,5; 52,44</t>
+          <t>-4,97; 80,1</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>3,88; 38,18</t>
+          <t>-2,22; 61,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,96; 44,46</t>
+          <t>25,67; 44,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 31,39</t>
+          <t>12,88; 31,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,98; -8,01</t>
+          <t>-20,94; -6,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,22; 33,2</t>
+          <t>12,72; 31,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 24,32</t>
+          <t>4,59; 24,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -16,02</t>
+          <t>-31,24; -15,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 35,53</t>
+          <t>22,69; 35,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,62; 25,31</t>
+          <t>11,52; 25,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,35; -13,9</t>
+          <t>-24,5; -13,84</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,58; 233,46</t>
+          <t>88,07; 234,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,49; 168,18</t>
+          <t>41,23; 157,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,89; -38,42</t>
+          <t>-74,14; -35,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,06; 109,32</t>
+          <t>30,3; 107,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 80,29</t>
+          <t>11,38; 83,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,41; -53,11</t>
+          <t>-75,73; -53,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,04; 135,32</t>
+          <t>65,62; 136,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,65; 92,6</t>
+          <t>34,31; 95,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,76; -51,83</t>
+          <t>-72,24; -52,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 36,02</t>
+          <t>22,27; 35,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 6,74</t>
+          <t>-5,24; 6,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 8,68</t>
+          <t>-4,9; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 35,2</t>
+          <t>22,67; 35,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 5,13</t>
+          <t>-6,2; 5,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 8,3</t>
+          <t>-2,44; 8,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 33,58</t>
+          <t>24,67; 33,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 3,79</t>
+          <t>-3,93; 4,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,28</t>
+          <t>-1,79; 6,47</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,31; 226,69</t>
+          <t>94,63; 218,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 43,46</t>
+          <t>-23,33; 38,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 53,09</t>
+          <t>-22,9; 46,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,55; 164,64</t>
+          <t>82,53; 172,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 25,13</t>
+          <t>-23,02; 27,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 39,86</t>
+          <t>-9,37; 43,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,12; 168,96</t>
+          <t>102,84; 173,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 19,3</t>
+          <t>-16,38; 20,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 31,57</t>
+          <t>-7,0; 33,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,68; 37,51</t>
+          <t>22,09; 37,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 13,31</t>
+          <t>-1,75; 13,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 6,87</t>
+          <t>-7,35; 6,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,6; 31,27</t>
+          <t>14,63; 31,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 6,01</t>
+          <t>-9,23; 6,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -1,49</t>
+          <t>-15,94; -2,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,39; 31,63</t>
+          <t>20,61; 31,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,54</t>
+          <t>-3,59; 7,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 0,4</t>
+          <t>-9,27; 0,45</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,33; 250,96</t>
+          <t>89,31; 244,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 87,43</t>
+          <t>-7,38; 84,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 45,01</t>
+          <t>-31,77; 41,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,63; 115,8</t>
+          <t>42,11; 113,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 22,0</t>
+          <t>-26,08; 23,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,28; -4,85</t>
+          <t>-44,01; -7,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>71,13; 138,8</t>
+          <t>71,47; 136,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 34,76</t>
+          <t>-12,43; 32,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 0,76</t>
+          <t>-32,94; 2,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,23; 50,73</t>
+          <t>36,46; 50,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,77; 33,57</t>
+          <t>18,98; 33,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 22,07</t>
+          <t>5,33; 21,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,2; 46,24</t>
+          <t>32,32; 46,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 31,03</t>
+          <t>16,36; 30,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 3,92</t>
+          <t>-14,43; 4,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,27; 45,77</t>
+          <t>35,9; 45,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,41; 29,7</t>
+          <t>19,97; 30,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 8,83</t>
+          <t>-5,09; 9,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>201,1; 454,92</t>
+          <t>198,55; 451,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>103,6; 291,5</t>
+          <t>105,37; 299,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,83; 186,21</t>
+          <t>28,67; 172,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>117,56; 237,54</t>
+          <t>118,47; 236,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>61,9; 156,35</t>
+          <t>63,17; 155,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 18,78</t>
+          <t>-53,56; 18,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>162,93; 271,97</t>
+          <t>163,39; 274,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>90,47; 177,05</t>
+          <t>92,46; 175,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 49,25</t>
+          <t>-22,98; 50,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,81; 36,16</t>
+          <t>15,3; 36,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,66; 42,12</t>
+          <t>21,45; 41,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 6,05</t>
+          <t>-14,25; 5,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,18; 40,63</t>
+          <t>19,85; 38,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,05; 49,2</t>
+          <t>31,21; 49,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 1,34</t>
+          <t>-20,33; 0,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,28; 35,77</t>
+          <t>21,56; 36,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,42; 43,08</t>
+          <t>29,54; 42,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -0,59</t>
+          <t>-16,44; -0,3</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>44,06; 165,28</t>
+          <t>45,13; 168,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>65,47; 196,31</t>
+          <t>63,31; 192,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 28,55</t>
+          <t>-43,92; 25,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>70,64; 212,56</t>
+          <t>69,88; 208,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,46; 256,82</t>
+          <t>104,28; 263,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 5,14</t>
+          <t>-68,02; 4,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>71,03; 162,94</t>
+          <t>71,24; 161,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>98,59; 202,29</t>
+          <t>100,96; 196,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,14; -2,66</t>
+          <t>-58,79; -1,47</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>28,95; 46,0</t>
+          <t>28,91; 45,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>19,27; 36,33</t>
+          <t>18,77; 36,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,38; 20,65</t>
+          <t>5,6; 20,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18,02; 34,58</t>
+          <t>18,25; 35,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,28; 33,46</t>
+          <t>14,04; 32,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,89; 18,71</t>
+          <t>5,79; 20,94</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>25,54; 37,18</t>
+          <t>25,68; 37,35</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>18,83; 31,22</t>
+          <t>18,9; 31,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,78; 18,07</t>
+          <t>8,04; 18,22</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>149,96; 402,43</t>
+          <t>144,04; 401,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>98,32; 307,92</t>
+          <t>98,96; 321,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29,55; 169,96</t>
+          <t>29,93; 187,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>67,55; 205,57</t>
+          <t>69,36; 205,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>56,2; 194,36</t>
+          <t>53,25; 187,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,27; 110,1</t>
+          <t>22,43; 126,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>120,74; 245,54</t>
+          <t>120,26; 244,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>92,02; 206,63</t>
+          <t>90,99; 201,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>35,17; 116,4</t>
+          <t>36,16; 115,43</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>21,33; 34,11</t>
+          <t>21,91; 34,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,89; 22,07</t>
+          <t>9,03; 22,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,6; -3,07</t>
+          <t>-13,58; -2,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,71; 27,19</t>
+          <t>15,98; 26,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,37; 24,17</t>
+          <t>11,86; 23,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 47,83</t>
+          <t>-14,48; 50,17</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,05; 28,46</t>
+          <t>20,06; 28,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>13,4; 21,64</t>
+          <t>13,14; 21,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 39,5</t>
+          <t>-11,71; 41,01</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>88,94; 206,1</t>
+          <t>94,19; 201,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>42,24; 125,66</t>
+          <t>39,1; 129,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-60,15; -17,78</t>
+          <t>-59,67; -14,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>53,19; 114,75</t>
+          <t>54,91; 113,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>41,31; 100,54</t>
+          <t>41,75; 100,07</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 208,74</t>
+          <t>-53,03; 222,91</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>78,47; 132,51</t>
+          <t>76,63; 131,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>53,02; 102,42</t>
+          <t>51,49; 101,38</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 169,66</t>
+          <t>-49,2; 178,92</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>16,73; 28,52</t>
+          <t>16,26; 27,94</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>24,35; 35,64</t>
+          <t>24,59; 35,46</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,28; 15,82</t>
+          <t>3,8; 15,05</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>24,79; 34,82</t>
+          <t>25,31; 35,53</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>34,37; 44,49</t>
+          <t>34,21; 44,79</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,33; 25,98</t>
+          <t>16,25; 26,56</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>22,52; 30,46</t>
+          <t>22,64; 30,21</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>31,31; 38,79</t>
+          <t>31,47; 38,72</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12,44; 20,22</t>
+          <t>12,0; 20,03</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>50,57; 104,31</t>
+          <t>49,3; 104,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>70,64; 130,87</t>
+          <t>74,33; 132,54</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>10,18; 57,71</t>
+          <t>11,33; 55,72</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>86,07; 148,28</t>
+          <t>87,99; 150,41</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>119,46; 190,27</t>
+          <t>120,16; 193,21</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>57,33; 109,69</t>
+          <t>57,44; 115,28</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>75,47; 116,75</t>
+          <t>75,49; 115,04</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>105,16; 149,78</t>
+          <t>103,97; 148,35</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>41,85; 78,99</t>
+          <t>39,8; 75,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,6</t>
+          <t>27,45; 32,49</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,44</t>
+          <t>17,05; 22,27</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,46</t>
+          <t>-1,44; 3,51</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,42</t>
+          <t>25,42; 30,36</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,1</t>
+          <t>18,14; 23,18</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 19,83</t>
+          <t>-1,29; 20,34</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,5</t>
+          <t>27,12; 30,64</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,98</t>
+          <t>18,53; 22,07</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 14,37</t>
+          <t>-0,34; 13,71</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>117,32; 159,14</t>
+          <t>119,86; 159,06</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>73,49; 108,72</t>
+          <t>73,94; 108,89</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 16,73</t>
+          <t>-6,21; 17,22</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>93,74; 123,11</t>
+          <t>92,78; 122,01</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>66,44; 92,38</t>
+          <t>66,52; 92,55</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 80,1</t>
+          <t>-4,81; 76,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>107,28; 131,06</t>
+          <t>107,43; 131,19</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>73,18; 94,43</t>
+          <t>73,85; 94,31</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 61,0</t>
+          <t>-1,39; 55,7</t>
         </is>
       </c>
     </row>
